--- a/pitcher_matchups_2025-07-22.xlsx
+++ b/pitcher_matchups_2025-07-22.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>StartTime</t>
   </si>
@@ -38,6 +38,9 @@
     <t>6:45 PM</t>
   </si>
   <si>
+    <t>7:05 PM</t>
+  </si>
+  <si>
     <t>7:07 PM</t>
   </si>
   <si>
@@ -47,9 +50,6 @@
     <t>7:15 PM</t>
   </si>
   <si>
-    <t>7:35 PM</t>
-  </si>
-  <si>
     <t>8:05 PM</t>
   </si>
   <si>
@@ -92,6 +92,12 @@
     <t>PHI</t>
   </si>
   <si>
+    <t>CWS</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
     <t>NYY</t>
   </si>
   <si>
@@ -110,12 +116,6 @@
     <t>ATL</t>
   </si>
   <si>
-    <t>CWS</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
     <t>ATH</t>
   </si>
   <si>
@@ -167,6 +167,9 @@
     <t>@PHI</t>
   </si>
   <si>
+    <t>@TB</t>
+  </si>
+  <si>
     <t>@TOR</t>
   </si>
   <si>
@@ -174,9 +177,6 @@
   </si>
   <si>
     <t>@ATL</t>
-  </si>
-  <si>
-    <t>@TB</t>
   </si>
   <si>
     <t>@TEX</t>
@@ -217,6 +217,10 @@
 @ PHI</t>
   </si>
   <si>
+    <t>CWS
+@ TB</t>
+  </si>
+  <si>
     <t>NYY
 @ TOR</t>
   </si>
@@ -227,10 +231,6 @@
   <si>
     <t>SF
 @ ATL</t>
-  </si>
-  <si>
-    <t>CWS
-@ TB</t>
   </si>
   <si>
     <t>ATH
@@ -280,6 +280,12 @@
 Jake Fraley (RF)
 TJ Friedl (CF)
 Will Benson (LF)</t>
+  </si>
+  <si>
+    <t>Kyle Tucker (RF)
+Michael Busch (1B)
+Pete Crow-Armstrong (CF)
+Reese McGuire (C)</t>
   </si>
   <si>
     <t>Alec Burleson (1B)
@@ -331,6 +337,10 @@
   </si>
   <si>
     <t>Elly De La Cruz (SS)</t>
+  </si>
+  <si>
+    <t>Ian Happ (LF)
+Vidal Bruján (3B)</t>
   </si>
   <si>
     <t>Cooper Hummel (LF)
@@ -848,7 +858,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>6</v>
@@ -874,10 +884,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -892,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -929,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -967,10 +977,10 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -978,10 +988,10 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
         <v>7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -993,7 +1003,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -1004,10 +1014,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
         <v>6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1019,10 +1029,10 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1030,10 +1040,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1045,10 +1055,10 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1059,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1071,7 +1081,7 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1082,10 +1092,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1100,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1108,7 +1118,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
@@ -1149,7 +1159,7 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1175,7 +1185,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
@@ -1201,10 +1211,10 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1212,10 +1222,10 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1293,13 +1303,14 @@
   <cols>
     <col min="1" max="2" width="6.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1348,7 +1359,7 @@
         <v>79</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1368,44 +1379,44 @@
         <v>80</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>84</v>
+      <c r="G5" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>82</v>
@@ -1413,15 +1424,35 @@
       <c r="F6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>88</v>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G6">
+  <conditionalFormatting sqref="A3:G7">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -1435,7 +1466,7 @@
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
+  <conditionalFormatting sqref="C3:C7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1451,7 +1482,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6">
+  <conditionalFormatting sqref="D3:D7">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
